--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1632819.270059492</v>
+        <v>1630567.190348285</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283166</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>138.8437204680918</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -713,19 +713,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>280.2364984178463</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9.90890202398988</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>172.4209394294446</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>149.5152923853005</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -953,7 +953,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>111.6770057037263</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>140.8682042557705</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>225.48552678711</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>238.6591887249595</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>112.0789181391353</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>63.13355668550191</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>77.31354443380407</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>101.9268484343545</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833434</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,16 +1582,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389245</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.137643323832</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>29.249233057517</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>99.97427419833905</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,16 +2008,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>9.146142788179874</v>
+        <v>102.1557845699892</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892372</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>83.06560892428905</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520878</v>
       </c>
     </row>
     <row r="23">
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,13 +2719,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>99.97427419834307</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8253826161913524</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="30">
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>9.146142788179874</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.8253826161931533</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3038,10 +3038,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>9.146142788179874</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>19.91555826189288</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326504044</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,10 +3433,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833906</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833906</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067214</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4328,10 +4328,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4346,7 +4346,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4361,19 +4361,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520487</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2656.568750250373</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2656.568750250373</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2373.501580131336</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,64 +4383,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1876.069090541939</v>
+        <v>372.8549345700854</v>
       </c>
       <c r="C4" t="n">
-        <v>1876.069090541939</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="D4" t="n">
-        <v>1876.069090541939</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E4" t="n">
-        <v>1876.069090541939</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.069090541939</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134515</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193524</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>2822.32286476305</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U4" t="n">
-        <v>2648.160299682803</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V4" t="n">
-        <v>2393.475811476917</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W4" t="n">
-        <v>2104.058641439956</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="X4" t="n">
-        <v>1876.069090541939</v>
+        <v>554.5033994003252</v>
       </c>
       <c r="Y4" t="n">
-        <v>1876.069090541939</v>
+        <v>554.5033994003252</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1418.660964416653</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="C5" t="n">
-        <v>1418.660964416653</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D5" t="n">
-        <v>1060.395265809902</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>674.6070132116581</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923659</v>
+        <v>2643.001872527934</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653544</v>
+        <v>2290.233217257819</v>
       </c>
       <c r="X5" t="n">
-        <v>1808.800296392465</v>
+        <v>1916.76745899674</v>
       </c>
       <c r="Y5" t="n">
-        <v>1418.660964416653</v>
+        <v>1916.76745899674</v>
       </c>
     </row>
     <row r="6">
@@ -4638,10 +4638,10 @@
         <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>825.3518203322459</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1785.003432678624</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1563.23681724815</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1274.133950373793</v>
+        <v>1387.934317044728</v>
       </c>
       <c r="V7" t="n">
-        <v>1274.133950373793</v>
+        <v>1133.249828838841</v>
       </c>
       <c r="W7" t="n">
-        <v>1274.133950373793</v>
+        <v>843.8326588018809</v>
       </c>
       <c r="X7" t="n">
-        <v>1046.144399475776</v>
+        <v>615.8431079038636</v>
       </c>
       <c r="Y7" t="n">
-        <v>825.3518203322459</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4799,7 +4799,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912092</v>
@@ -4808,46 +4808,46 @@
         <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3084.535934008201</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2731.767278738087</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2731.767278738087</v>
+        <v>1958.764357757271</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1958.764357757271</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>385.5649387724261</v>
+        <v>278.1964793938714</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445192</v>
+        <v>278.1964793938714</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>278.1964793938714</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>130.2833858114783</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>130.2833858114783</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1849.200058761417</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1849.200058761417</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1849.200058761417</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1560.097191887061</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1305.412703681174</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1015.995533644213</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>788.005982746196</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y10" t="n">
-        <v>567.2134036026658</v>
+        <v>459.8449442241111</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>114.2598873597761</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5519571452614</v>
+        <v>448.1846595309966</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>943.5102657467552</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>808.8888553856852</v>
+        <v>513.8536007400673</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121605</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998247</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359455</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.329899359455</v>
+        <v>916.2946447138372</v>
       </c>
       <c r="Y13" t="n">
-        <v>990.537320215925</v>
+        <v>695.5020655703071</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5264,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>382.4184417036842</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998673</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400792</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121723</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121723</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597624</v>
+        <v>197.0043242297792</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854714</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648827</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611866</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>916.294644713849</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703189</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G20" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192724</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111728</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400787</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121718</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121718</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121718</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5953,7 +5953,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703185</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6127,22 +6127,22 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>924.8344286397187</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.212916266271</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400762</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121693</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474266</v>
+        <v>194.8007783998336</v>
       </c>
       <c r="E28" t="n">
-        <v>261.8464821474266</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6391,7 +6391,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832668</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138461</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703159</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6488,13 +6488,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L30" t="n">
-        <v>119.2902967703784</v>
+        <v>710.2486053718716</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>580.8993044876711</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597624</v>
+        <v>411.9631215597642</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474284</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474284</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797189</v>
@@ -6628,43 +6628,43 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258108</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.431557602306</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.747069396419</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1211.329899359458</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>983.340348461441</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179108</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>119.2902967703784</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>1918.29660558528</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876693</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597624</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797189</v>
@@ -6865,7 +6865,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570818</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="L36" t="n">
-        <v>119.2902967703784</v>
+        <v>589.1422692637309</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1186.520756890283</v>
       </c>
       <c r="N36" t="n">
         <v>1344.266747951537</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400789</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427008</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7102,7 +7102,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570818</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853369</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580268</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832671</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487575</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510516</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854714</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648827</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611866</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138488</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703187</v>
       </c>
     </row>
     <row r="38">
@@ -7160,61 +7160,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L39" t="n">
-        <v>119.2902967703784</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7339,7 +7339,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570818</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="41">
@@ -7397,25 +7397,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>692.9625378792912</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7576,7 +7576,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
@@ -7585,13 +7585,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487568</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7731,16 +7731,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123329</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1103.652278938885</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297721</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297721</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7813,7 +7813,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570818</v>
@@ -7822,13 +7822,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487568</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>65.31997266427332</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>46.45968844823483</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>119.3662399606954</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>65.5498640939298</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>136.2749052347514</v>
+        <v>43.26526345294208</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864219</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>65.54986409393022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>43.2652634529495</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>46.4596884482261</v>
       </c>
       <c r="F28" t="n">
-        <v>144.5956654067399</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>139.4693302300325</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>144.5956654067381</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>139.4693302300325</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>46.45968844822876</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>46.45968844822347</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823011</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409392978</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>63.3683537222866</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>899450.1949942408</v>
+        <v>899450.1949942406</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>899450.1949942408</v>
+        <v>899450.1949942409</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>899450.1949942408</v>
+        <v>899450.1949942406</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>899450.1949942409</v>
+        <v>899450.1949942408</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>899450.1949942408</v>
+        <v>899450.1949942409</v>
       </c>
     </row>
     <row r="16">
@@ -26314,16 +26314,16 @@
         <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="F2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="F2" t="n">
-        <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
         <v>524645.289798504</v>
@@ -26335,25 +26335,25 @@
         <v>524645.2897985037</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.694760941172718e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316946</v>
       </c>
       <c r="C4" t="n">
+        <v>91573.95495316942</v>
+      </c>
+      <c r="D4" t="n">
         <v>91573.95495316939</v>
-      </c>
-      <c r="D4" t="n">
-        <v>91573.95495316945</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26482,7 +26482,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26491,7 +26491,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26500,7 +26500,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-994575.4908303709</v>
       </c>
       <c r="C6" t="n">
+        <v>334169.2548972215</v>
+      </c>
+      <c r="D6" t="n">
         <v>334169.2548972216</v>
       </c>
-      <c r="D6" t="n">
-        <v>334169.2548972218</v>
-      </c>
       <c r="E6" t="n">
-        <v>85723.37798542327</v>
+        <v>85688.640059988</v>
       </c>
       <c r="F6" t="n">
-        <v>411135.8397927787</v>
+        <v>411101.1018673422</v>
       </c>
       <c r="G6" t="n">
-        <v>411135.8397927785</v>
+        <v>411101.1018673429</v>
       </c>
       <c r="H6" t="n">
-        <v>411135.8397927786</v>
+        <v>411101.1018673429</v>
       </c>
       <c r="I6" t="n">
-        <v>411135.8397927785</v>
+        <v>411101.1018673428</v>
       </c>
       <c r="J6" t="n">
-        <v>193604.637395501</v>
+        <v>193569.8994700656</v>
       </c>
       <c r="K6" t="n">
-        <v>411135.8397927786</v>
+        <v>411101.1018673429</v>
       </c>
       <c r="L6" t="n">
-        <v>411135.8397927785</v>
+        <v>411101.101867343</v>
       </c>
       <c r="M6" t="n">
-        <v>326080.8118572667</v>
+        <v>326046.073931831</v>
       </c>
       <c r="N6" t="n">
-        <v>411135.8397927785</v>
+        <v>411101.1018673429</v>
       </c>
       <c r="O6" t="n">
-        <v>411135.8397927786</v>
+        <v>411101.1018673429</v>
       </c>
       <c r="P6" t="n">
-        <v>411135.8397927786</v>
+        <v>411101.101867343</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26790,16 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26808,7 +26808,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="N4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,31 +27018,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>341.3068326973553</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022923</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>341.3068326973557</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>226.4291713029158</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>106.0014402382072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>157.337919074638</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>113.7908987761683</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>257.360753356411</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>216.0752527664086</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>48.90082107567136</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>60.72631141850283</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>89.09306974517543</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>257.6521825393337</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>102.8922515735263</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>11.61860823624328</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28302,10 +28302,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-8.483880264975597e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.656846076092861e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28776,7 +28776,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>6.97563488453549e-12</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-2.103206497849897e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29025,7 +29025,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>6.97563488453549e-12</v>
       </c>
     </row>
     <row r="23">
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-8.041947931807411e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29475,7 +29475,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>-8.38692912942887e-15</v>
       </c>
     </row>
     <row r="30">
@@ -29703,7 +29703,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1.508245380440106e-12</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -29946,7 +29946,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-2.103206497849897e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30183,7 +30183,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>6.97563488453549e-12</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>145.7021085929668</v>
       </c>
       <c r="K12" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421378</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32315,22 +32315,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>545.384524176864</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,7 +32339,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067244</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32546,13 +32546,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32783,16 +32783,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111248</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214699</v>
@@ -32810,7 +32810,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32977,7 +32977,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,37 +33020,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>707.6907700089115</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33117,7 +33117,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33214,7 +33214,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,37 +33257,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338202</v>
+        <v>270.9716933356895</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q30" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33354,7 +33354,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33451,7 +33451,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,34 +33497,34 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>502.5232631188754</v>
       </c>
       <c r="Q33" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33591,7 +33591,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33688,7 +33688,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33740,19 +33740,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>290.6810969936909</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q36" t="n">
         <v>375.5996128485291</v>
@@ -33761,7 +33761,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33828,7 +33828,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33925,7 +33925,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,37 +33968,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>198.5607970756945</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q39" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34065,7 +34065,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663262</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34162,7 +34162,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,7 +34205,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34217,25 +34217,25 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>362.5355639238077</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34302,7 +34302,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162543</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34399,7 +34399,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34451,19 +34451,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630672</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.5996128485291</v>
@@ -34472,7 +34472,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796262</v>
@@ -34539,7 +34539,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>18.86448192630008</v>
       </c>
       <c r="K12" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402481</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588045</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>406.8301443969899</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236318498</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071396</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>576.3490579255782</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36762,7 +36762,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
@@ -36771,7 +36771,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572999026</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394598</v>
+        <v>132.4173135558152</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -36999,7 +36999,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.626132989909</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>368.5488557045452</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
@@ -37236,13 +37236,13 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066263</v>
       </c>
       <c r="Q34" t="n">
         <v>120.4022572998984</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37388,19 +37388,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>159.3393849103576</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625076</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37473,13 +37473,13 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.631773306632</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998984</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394598</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>55.96455263125009</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
@@ -37710,7 +37710,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060455</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396399</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>222.5537898377862</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -37947,7 +37947,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.079992146267</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902405</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>416.623361883193</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
         <v>264.332588409635</v>
@@ -38184,7 +38184,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
         <v>373.2618997060455</v>
